--- a/public/seeders/system_notifications.xlsx
+++ b/public/seeders/system_notifications.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farosh3\Videos\AnyDesk\saas-boilerplate\storage\tenantabmasoft\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farosh3\Videos\AnyDesk\saas-boilerplate\public\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="264">
   <si>
     <t>Notification</t>
   </si>
@@ -905,12 +905,15 @@
   <si>
     <t>Staff</t>
   </si>
+  <si>
+    <t>type of trigger</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -954,6 +957,14 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -996,7 +1007,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1060,6 +1071,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1280,8 +1294,8 @@
   </sheetPr>
   <dimension ref="A1:AC1020"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1292,7 +1306,7 @@
     <col min="6" max="11" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1326,7 +1340,9 @@
       <c r="K1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="5"/>
+      <c r="L1" s="23" t="s">
+        <v>263</v>
+      </c>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
@@ -1369,7 +1385,9 @@
         <v>73</v>
       </c>
       <c r="K2" s="19"/>
-      <c r="L2" s="14"/>
+      <c r="L2" s="14">
+        <v>2</v>
+      </c>
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
@@ -1422,7 +1440,9 @@
       <c r="K3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="8"/>
+      <c r="L3" s="22">
+        <v>2</v>
+      </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
@@ -1475,7 +1495,9 @@
       <c r="K4" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="L4" s="5"/>
+      <c r="L4" s="22">
+        <v>2</v>
+      </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -1524,7 +1546,9 @@
       <c r="K5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="14"/>
+      <c r="L5" s="22">
+        <v>2</v>
+      </c>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -1561,7 +1585,9 @@
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
-      <c r="L6" s="5"/>
+      <c r="L6" s="22">
+        <v>2</v>
+      </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -1614,7 +1640,9 @@
       <c r="K7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="14"/>
+      <c r="L7" s="22">
+        <v>2</v>
+      </c>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
@@ -1667,7 +1695,9 @@
       <c r="K8" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="L8" s="5"/>
+      <c r="L8" s="22">
+        <v>2</v>
+      </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
@@ -1720,7 +1750,9 @@
       <c r="K9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="14"/>
+      <c r="L9" s="22">
+        <v>2</v>
+      </c>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
@@ -1773,7 +1805,9 @@
       <c r="K10" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="L10" s="5"/>
+      <c r="L10" s="22">
+        <v>2</v>
+      </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -1826,7 +1860,9 @@
       <c r="K11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="14"/>
+      <c r="L11" s="22">
+        <v>2</v>
+      </c>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
@@ -1879,7 +1915,9 @@
       <c r="K12" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="L12" s="5"/>
+      <c r="L12" s="22">
+        <v>2</v>
+      </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
@@ -1930,7 +1968,9 @@
       <c r="K13" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="L13" s="5"/>
+      <c r="L13" s="22">
+        <v>2</v>
+      </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -1983,7 +2023,9 @@
       <c r="K14" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="L14" s="5"/>
+      <c r="L14" s="22">
+        <v>2</v>
+      </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
@@ -2036,7 +2078,9 @@
       <c r="K15" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="L15" s="5"/>
+      <c r="L15" s="22">
+        <v>2</v>
+      </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
@@ -2089,7 +2133,9 @@
       <c r="K16" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="L16" s="5"/>
+      <c r="L16" s="22">
+        <v>2</v>
+      </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
@@ -2108,7 +2154,7 @@
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
     </row>
-    <row r="17" spans="1:29" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>23</v>
       </c>
@@ -2142,7 +2188,9 @@
       <c r="K17" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="L17" s="5"/>
+      <c r="L17" s="22">
+        <v>2</v>
+      </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
@@ -2195,7 +2243,9 @@
       <c r="K18" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="L18" s="5"/>
+      <c r="L18" s="22">
+        <v>2</v>
+      </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
@@ -2248,7 +2298,9 @@
       <c r="K19" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="L19" s="5"/>
+      <c r="L19" s="22">
+        <v>2</v>
+      </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
@@ -2267,7 +2319,7 @@
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
     </row>
-    <row r="20" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>76</v>
       </c>
@@ -2301,7 +2353,9 @@
       <c r="K20" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="5"/>
+      <c r="L20" s="22">
+        <v>2</v>
+      </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
@@ -2320,7 +2374,7 @@
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
     </row>
-    <row r="21" spans="1:29" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>136</v>
       </c>
@@ -2354,7 +2408,9 @@
       <c r="K21" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="5"/>
+      <c r="L21" s="22">
+        <v>2</v>
+      </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
@@ -2373,7 +2429,7 @@
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
     </row>
-    <row r="22" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>30</v>
       </c>
@@ -2407,7 +2463,9 @@
       <c r="K22" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="5"/>
+      <c r="L22" s="22">
+        <v>2</v>
+      </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
@@ -2460,7 +2518,9 @@
       <c r="K23" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="L23" s="14"/>
+      <c r="L23" s="22">
+        <v>2</v>
+      </c>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
@@ -2501,7 +2561,9 @@
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
-      <c r="L24" s="5"/>
+      <c r="L24" s="22">
+        <v>2</v>
+      </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
@@ -2554,7 +2616,9 @@
       <c r="K25" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="5"/>
+      <c r="L25" s="22">
+        <v>2</v>
+      </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
@@ -2607,7 +2671,9 @@
       <c r="K26" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="L26" s="5"/>
+      <c r="L26" s="22">
+        <v>2</v>
+      </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
@@ -2660,7 +2726,9 @@
       <c r="K27" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="L27" s="5"/>
+      <c r="L27" s="22">
+        <v>2</v>
+      </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
@@ -2713,7 +2781,9 @@
       <c r="K28" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="L28" s="5"/>
+      <c r="L28" s="22">
+        <v>2</v>
+      </c>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
@@ -2766,7 +2836,9 @@
       <c r="K29" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="L29" s="5"/>
+      <c r="L29" s="22">
+        <v>2</v>
+      </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
@@ -2819,7 +2891,9 @@
       <c r="K30" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="L30" s="5"/>
+      <c r="L30" s="22">
+        <v>2</v>
+      </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
@@ -2872,7 +2946,9 @@
       <c r="K31" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="L31" s="5"/>
+      <c r="L31" s="22">
+        <v>2</v>
+      </c>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
@@ -2925,7 +3001,9 @@
       <c r="K32" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="L32" s="5"/>
+      <c r="L32" s="22">
+        <v>2</v>
+      </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
@@ -2978,7 +3056,9 @@
       <c r="K33" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="L33" s="5"/>
+      <c r="L33" s="22">
+        <v>2</v>
+      </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
@@ -3031,7 +3111,9 @@
       <c r="K34" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="L34" s="5"/>
+      <c r="L34" s="22">
+        <v>2</v>
+      </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
@@ -3084,7 +3166,9 @@
       <c r="K35" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L35" s="5"/>
+      <c r="L35" s="22">
+        <v>2</v>
+      </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
@@ -3137,7 +3221,9 @@
       <c r="K36" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L36" s="5"/>
+      <c r="L36" s="22">
+        <v>2</v>
+      </c>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
@@ -3190,7 +3276,9 @@
       <c r="K37" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="L37" s="5"/>
+      <c r="L37" s="22">
+        <v>2</v>
+      </c>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
@@ -3209,7 +3297,7 @@
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
     </row>
-    <row r="38" spans="1:29" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>49</v>
       </c>
@@ -3243,7 +3331,9 @@
       <c r="K38" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="L38" s="5"/>
+      <c r="L38" s="22">
+        <v>2</v>
+      </c>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
@@ -3296,7 +3386,9 @@
       <c r="K39" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L39" s="5"/>
+      <c r="L39" s="22">
+        <v>2</v>
+      </c>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
@@ -3349,7 +3441,9 @@
       <c r="K40" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="L40" s="5"/>
+      <c r="L40" s="22">
+        <v>2</v>
+      </c>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
@@ -3402,7 +3496,9 @@
       <c r="K41" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="L41" s="5"/>
+      <c r="L41" s="22">
+        <v>2</v>
+      </c>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
@@ -3455,7 +3551,9 @@
       <c r="K42" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="L42" s="5"/>
+      <c r="L42" s="22">
+        <v>2</v>
+      </c>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
@@ -3508,7 +3606,9 @@
       <c r="K43" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L43" s="5"/>
+      <c r="L43" s="22">
+        <v>2</v>
+      </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
@@ -3561,7 +3661,9 @@
       <c r="K44" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="L44" s="5"/>
+      <c r="L44" s="22">
+        <v>2</v>
+      </c>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
@@ -3614,7 +3716,9 @@
       <c r="K45" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L45" s="5"/>
+      <c r="L45" s="22">
+        <v>2</v>
+      </c>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
@@ -3667,7 +3771,9 @@
       <c r="K46" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="L46" s="5"/>
+      <c r="L46" s="22">
+        <v>2</v>
+      </c>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
@@ -3720,7 +3826,9 @@
       <c r="K47" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L47" s="14"/>
+      <c r="L47" s="22">
+        <v>2</v>
+      </c>
       <c r="M47" s="14"/>
       <c r="N47" s="14"/>
       <c r="O47" s="14"/>
@@ -3773,7 +3881,9 @@
       <c r="K48" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L48" s="5"/>
+      <c r="L48" s="22">
+        <v>2</v>
+      </c>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
@@ -3826,7 +3936,9 @@
       <c r="K49" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="L49" s="5"/>
+      <c r="L49" s="22">
+        <v>2</v>
+      </c>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
@@ -3879,7 +3991,9 @@
       <c r="K50" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L50" s="5"/>
+      <c r="L50" s="22">
+        <v>2</v>
+      </c>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
@@ -3932,7 +4046,9 @@
       <c r="K51" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L51" s="5"/>
+      <c r="L51" s="22">
+        <v>2</v>
+      </c>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
@@ -3985,7 +4101,9 @@
       <c r="K52" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="L52" s="5"/>
+      <c r="L52" s="22">
+        <v>2</v>
+      </c>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
@@ -4038,7 +4156,9 @@
       <c r="K53" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="L53" s="5"/>
+      <c r="L53" s="22">
+        <v>2</v>
+      </c>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
@@ -4091,7 +4211,9 @@
       <c r="K54" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="L54" s="5"/>
+      <c r="L54" s="22">
+        <v>2</v>
+      </c>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
@@ -4144,7 +4266,9 @@
       <c r="K55" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L55" s="5"/>
+      <c r="L55" s="22">
+        <v>2</v>
+      </c>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
@@ -4197,7 +4321,9 @@
       <c r="K56" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="L56" s="7"/>
+      <c r="L56" s="22">
+        <v>2</v>
+      </c>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
       <c r="O56" s="9"/>
@@ -4250,7 +4376,9 @@
       <c r="K57" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="L57" s="5"/>
+      <c r="L57" s="22">
+        <v>2</v>
+      </c>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
@@ -4303,7 +4431,9 @@
       <c r="K58" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L58" s="5"/>
+      <c r="L58" s="22">
+        <v>2</v>
+      </c>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
@@ -4356,7 +4486,9 @@
       <c r="K59" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L59" s="5"/>
+      <c r="L59" s="22">
+        <v>2</v>
+      </c>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
@@ -4409,7 +4541,9 @@
       <c r="K60" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="L60" s="5"/>
+      <c r="L60" s="22">
+        <v>2</v>
+      </c>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
@@ -4462,7 +4596,9 @@
       <c r="K61" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="L61" s="5"/>
+      <c r="L61" s="22">
+        <v>2</v>
+      </c>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
@@ -4515,7 +4651,9 @@
       <c r="K62" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="L62" s="5"/>
+      <c r="L62" s="22">
+        <v>2</v>
+      </c>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
@@ -34235,5 +34373,6 @@
   </sheetData>
   <autoFilter ref="A1:G62"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>